--- a/Excel/Airpositivecredit.xlsx
+++ b/Excel/Airpositivecredit.xlsx
@@ -429,7 +429,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>9210291216</t>
+    <t>9210291264</t>
   </si>
 </sst>
 </file>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CM1" workbookViewId="0">
-      <selection activeCell="CO3" sqref="CO3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Airpositivecredit.xlsx
+++ b/Excel/Airpositivecredit.xlsx
@@ -429,7 +429,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>9210291264</t>
+    <t>9210291273</t>
   </si>
 </sst>
 </file>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Airpositivecredit.xlsx
+++ b/Excel/Airpositivecredit.xlsx
@@ -429,7 +429,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>9210291283</t>
+    <t>9310291342</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
   <dimension ref="A1:CN2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
